--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Resource1 (код)</t>
+  </si>
+  <si>
+    <t>РЕМОНТ</t>
   </si>
   <si>
     <t>Resource1 (т)</t>
@@ -622,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -630,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -646,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -757,66 +760,66 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
         <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>300</v>
       </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
       <c r="F34">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -825,67 +828,67 @@
         <v>100</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M34">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
         <v>300</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -894,10 +897,10 @@
         <v>100</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -905,68 +908,71 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
       </c>
       <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>33</v>
       </c>
-      <c r="H40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>300</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>300</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -974,47 +980,44 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
       </c>
       <c r="H44" t="s">
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s">
         <v>33</v>
       </c>
       <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
         <v>32</v>
-      </c>
-      <c r="L44" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1023,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>200</v>
@@ -1038,29 +1041,29 @@
         <v>200</v>
       </c>
       <c r="I45">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45">
         <v>300</v>
       </c>
       <c r="K45">
+        <v>300</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
         <v>200</v>
-      </c>
-      <c r="L45">
-        <v>150</v>
-      </c>
-      <c r="M45">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1092,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="B52">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">

--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,45 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
   <si>
-    <t>prod_rate1 (этап 1):</t>
+    <t>prod_rate (этапы 1/2/3):</t>
   </si>
   <si>
     <t>{('Resource1', 'K1'): 100, ('Resource1', 'K2'): 100, ('Resource1', 'K3'): 100, ('Resource1', 'K4'): 100, ('Resource1', 'K5'): 300, ('Resource1', 'K6'): 300, ('Resource21', 'K1'): 100, ('Resource21', 'K2'): 100, ('Resource21', 'K3'): 100, ('Resource21', 'K4'): 100, ('Resource21', 'K5'): 300, ('Resource21', 'K6'): 300, ('Resource22', 'K1'): 100, ('Resource22', 'K2'): 100, ('Resource22', 'K3'): 100, ('Resource22', 'K4'): 100, ('Resource22', 'K5'): 300, ('Resource22', 'K6'): 300, ('Resource31', 'K1'): 100, ('Resource31', 'K2'): 150, ('Resource31', 'K3'): 200, ('Resource31', 'K4'): 200, ('Resource31', 'K5'): 200, ('Resource31', 'K6'): 300}</t>
   </si>
   <si>
-    <t>prod_rate (этапы 2/3):</t>
-  </si>
-  <si>
     <t>cooling_time:</t>
   </si>
   <si>
     <t>{'K1': 1, 'K2': 1, 'K3': 1, 'K4': 1, 'K5': 1, 'K6': 1}</t>
   </si>
   <si>
-    <t>reconf_h1 (этап 1):</t>
-  </si>
-  <si>
-    <t>{'Resource1': 12, 'Resource21': 12, 'Resource22': 12, 'Resource31': 12}</t>
-  </si>
-  <si>
-    <t>reconf_h (этапы 2/3):</t>
-  </si>
-  <si>
     <t>nsi_schedule (НСИ выплавки):</t>
   </si>
   <si>
-    <t>{1: ('K1', 100), 2: ('K2', 300), 3: ('K3', 200), 4: ('K6', 700), 5: ('K4', 200), 6: ('K5', 600), 7: ('K3', 200)}</t>
+    <t>{1: ('K1', 100), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 600), 5: ('K4', 200), 6: ('K5', 600)}</t>
   </si>
   <si>
     <t>total_nsi (объемы НСИ):</t>
   </si>
   <si>
-    <t>{'K1': 100, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 700}</t>
+    <t>{'K1': 100, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 600}</t>
   </si>
   <si>
     <t>ОГРАНИЧЕНИЯ:</t>
@@ -136,34 +124,40 @@
     <t>Resource1 (код)</t>
   </si>
   <si>
+    <t>ПЕРЕВАЛКА</t>
+  </si>
+  <si>
+    <t>Resource1 (т)</t>
+  </si>
+  <si>
+    <t>4 дн перевалок</t>
+  </si>
+  <si>
+    <t>Resource21 (код)</t>
+  </si>
+  <si>
+    <t>Resource21 (т)</t>
+  </si>
+  <si>
+    <t>Resource22 (код)</t>
+  </si>
+  <si>
     <t>РЕМОНТ</t>
   </si>
   <si>
-    <t>Resource1 (т)</t>
-  </si>
-  <si>
-    <t>0 ч перевалок</t>
-  </si>
-  <si>
-    <t>Resource21 (код)</t>
-  </si>
-  <si>
-    <t>Resource21 (т)</t>
-  </si>
-  <si>
-    <t>Resource22 (код)</t>
-  </si>
-  <si>
     <t>Resource22 (т)</t>
   </si>
   <si>
+    <t>0 дн перевалок</t>
+  </si>
+  <si>
     <t>Resource31 (код)</t>
   </si>
   <si>
     <t>Resource31 (т)</t>
   </si>
   <si>
-    <t>Всего прокатано (этап 3):</t>
+    <t>2 дн перевалок</t>
   </si>
 </sst>
 </file>
@@ -495,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,599 +513,441 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+      <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26">
+        <v>600</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>300</v>
-      </c>
-      <c r="D29">
-        <v>200</v>
-      </c>
-      <c r="E29">
-        <v>700</v>
-      </c>
-      <c r="F29">
-        <v>200</v>
-      </c>
-      <c r="G29">
-        <v>600</v>
-      </c>
-      <c r="H29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>300</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>300</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>300</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>100</v>
-      </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34">
-        <v>300</v>
-      </c>
-      <c r="L34">
-        <v>300</v>
-      </c>
-      <c r="M34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="I41" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>300</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>300</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>100</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>300</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>300</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>47</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>150</v>
-      </c>
-      <c r="F45">
-        <v>150</v>
-      </c>
-      <c r="G45">
-        <v>200</v>
-      </c>
-      <c r="H45">
-        <v>200</v>
-      </c>
-      <c r="I45">
-        <v>200</v>
-      </c>
-      <c r="J45">
-        <v>300</v>
-      </c>
-      <c r="K45">
-        <v>300</v>
-      </c>
-      <c r="L45">
-        <v>100</v>
-      </c>
-      <c r="M45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
@@ -130,7 +130,7 @@
     <t>Resource1 (т)</t>
   </si>
   <si>
-    <t>4 дн перевалок</t>
+    <t>2 дн перевалок</t>
   </si>
   <si>
     <t>Resource21 (код)</t>
@@ -139,25 +139,22 @@
     <t>Resource21 (т)</t>
   </si>
   <si>
+    <t>0 дн перевалок</t>
+  </si>
+  <si>
     <t>Resource22 (код)</t>
   </si>
   <si>
-    <t>РЕМОНТ</t>
-  </si>
-  <si>
     <t>Resource22 (т)</t>
   </si>
   <si>
-    <t>0 дн перевалок</t>
-  </si>
-  <si>
     <t>Resource31 (код)</t>
   </si>
   <si>
     <t>Resource31 (т)</t>
   </si>
   <si>
-    <t>2 дн перевалок</t>
+    <t>1 дн перевалок</t>
   </si>
 </sst>
 </file>
@@ -587,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -730,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -774,27 +771,6 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -804,59 +780,56 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -867,45 +840,45 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
       </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
@@ -918,7 +891,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -927,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E42">
         <v>300</v>
       </c>
       <c r="F42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -947,7 +920,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
@@ -34,13 +34,97 @@
     <t>nsi_schedule (НСИ выплавки):</t>
   </si>
   <si>
-    <t>{1: ('K1', 100), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 600), 5: ('K4', 200), 6: ('K5', 600)}</t>
+    <t>{1: ('K1', 300), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 600), 5: ('K4', 200), 6: ('K5', 600)}</t>
   </si>
   <si>
     <t>total_nsi (объемы НСИ):</t>
   </si>
   <si>
-    <t>{'K1': 100, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 600}</t>
+    <t>{'K1': 300, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 600}</t>
+  </si>
+  <si>
+    <t>МЕТРИКИ:</t>
+  </si>
+  <si>
+    <t>Суммарно перевалок, ч</t>
+  </si>
+  <si>
+    <t>Суммарно выплавлено, т</t>
+  </si>
+  <si>
+    <t>Суммарно прокатано, т</t>
+  </si>
+  <si>
+    <t>Задействовано агрегатов</t>
+  </si>
+  <si>
+    <t>Отклонение загрузки</t>
+  </si>
+  <si>
+    <t>НСИ: выплавка</t>
+  </si>
+  <si>
+    <t>Код кампании</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>Тонны</t>
+  </si>
+  <si>
+    <t>Выплавка (этап 1)</t>
+  </si>
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>Resource1 (код)</t>
+  </si>
+  <si>
+    <t>ПЕРЕВАЛКА</t>
+  </si>
+  <si>
+    <t>Resource1 (т)</t>
+  </si>
+  <si>
+    <t>2 дн перевалок</t>
+  </si>
+  <si>
+    <t>Resource21 (код)</t>
+  </si>
+  <si>
+    <t>Resource21 (т)</t>
+  </si>
+  <si>
+    <t>Resource22 (код)</t>
+  </si>
+  <si>
+    <t>Resource22 (т)</t>
+  </si>
+  <si>
+    <t>1 дн перевалок</t>
+  </si>
+  <si>
+    <t>Resource31 (код)</t>
+  </si>
+  <si>
+    <t>Resource31 (т)</t>
   </si>
   <si>
     <t>ОГРАНИЧЕНИЯ:</t>
@@ -68,93 +152,6 @@
   </si>
   <si>
     <t>Параллельные агрегаты: кампании выполняются независимо (синхронизация не требуется).</t>
-  </si>
-  <si>
-    <t>МЕТРИКИ:</t>
-  </si>
-  <si>
-    <t>Суммарно перевалок, ч</t>
-  </si>
-  <si>
-    <t>Суммарно выплавлено, т</t>
-  </si>
-  <si>
-    <t>Суммарно прокатано, т</t>
-  </si>
-  <si>
-    <t>Задействовано агрегатов</t>
-  </si>
-  <si>
-    <t>Отклонение загрузки</t>
-  </si>
-  <si>
-    <t>НСИ: выплавка</t>
-  </si>
-  <si>
-    <t>Код кампании</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>Тонны</t>
-  </si>
-  <si>
-    <t>Выплавка (этап 1)</t>
-  </si>
-  <si>
-    <t>День</t>
-  </si>
-  <si>
-    <t>Resource1 (код)</t>
-  </si>
-  <si>
-    <t>ПЕРЕВАЛКА</t>
-  </si>
-  <si>
-    <t>Resource1 (т)</t>
-  </si>
-  <si>
-    <t>2 дн перевалок</t>
-  </si>
-  <si>
-    <t>Resource21 (код)</t>
-  </si>
-  <si>
-    <t>Resource21 (т)</t>
-  </si>
-  <si>
-    <t>0 дн перевалок</t>
-  </si>
-  <si>
-    <t>Resource22 (код)</t>
-  </si>
-  <si>
-    <t>Resource22 (т)</t>
-  </si>
-  <si>
-    <t>Resource31 (код)</t>
-  </si>
-  <si>
-    <t>Resource31 (т)</t>
-  </si>
-  <si>
-    <t>1 дн перевалок</t>
   </si>
 </sst>
 </file>
@@ -486,18 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -513,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -521,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -529,398 +526,449 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>300</v>
-      </c>
-      <c r="D26">
-        <v>400</v>
-      </c>
-      <c r="E26">
-        <v>600</v>
-      </c>
-      <c r="F26">
-        <v>200</v>
-      </c>
-      <c r="G26">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>300</v>
+      </c>
+      <c r="K32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
-        <v>300</v>
-      </c>
-      <c r="C31">
-        <v>300</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-      <c r="F31">
-        <v>300</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>300</v>
-      </c>
-      <c r="D38">
-        <v>300</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>300</v>
-      </c>
-      <c r="G38">
-        <v>300</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>45</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>300</v>
-      </c>
-      <c r="E42">
-        <v>300</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>200</v>
-      </c>
-      <c r="I42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
@@ -34,13 +34,13 @@
     <t>nsi_schedule (НСИ выплавки):</t>
   </si>
   <si>
-    <t>{1: ('K1', 300), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 600), 5: ('K4', 200), 6: ('K5', 600)}</t>
+    <t>{1: ('K1', 300), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 1200), 5: ('K4', 200), 6: ('K5', 600)}</t>
   </si>
   <si>
     <t>total_nsi (объемы НСИ):</t>
   </si>
   <si>
-    <t>{'K1': 300, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 600}</t>
+    <t>{'K1': 300, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 1200}</t>
   </si>
   <si>
     <t>МЕТРИКИ:</t>
@@ -103,7 +103,7 @@
     <t>Resource1 (т)</t>
   </si>
   <si>
-    <t>2 дн перевалок</t>
+    <t>4 дн перевалок</t>
   </si>
   <si>
     <t>Resource21 (код)</t>
@@ -118,13 +118,16 @@
     <t>Resource22 (т)</t>
   </si>
   <si>
-    <t>1 дн перевалок</t>
+    <t>0 дн перевалок</t>
   </si>
   <si>
     <t>Resource31 (код)</t>
   </si>
   <si>
     <t>Resource31 (т)</t>
+  </si>
+  <si>
+    <t>3 дн перевалок</t>
   </si>
   <si>
     <t>ОГРАНИЧЕНИЯ:</t>
@@ -167,12 +170,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -544,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -552,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -560,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -568,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1.71</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -613,7 +644,7 @@
         <v>400</v>
       </c>
       <c r="E16">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -622,12 +653,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -661,43 +692,70 @@
       <c r="K19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
+      <c r="O20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -720,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -731,33 +789,75 @@
       <c r="K21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="P24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -768,56 +868,59 @@
         <v>300</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G25">
         <v>300</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -834,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -843,50 +946,83 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
       <c r="K31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -897,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -909,66 +1045,81 @@
         <v>200</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>200</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K32">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>300</v>
+      </c>
+      <c r="M32">
+        <v>300</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/output/report_full.xlsx
+++ b/output/report_full.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>ПАРАМЕТРЫ ЗАДАЧИ:</t>
   </si>
   <si>
-    <t>prod_rate (этапы 1/2/3):</t>
-  </si>
-  <si>
-    <t>{('Resource1', 'K1'): 100, ('Resource1', 'K2'): 100, ('Resource1', 'K3'): 100, ('Resource1', 'K4'): 100, ('Resource1', 'K5'): 300, ('Resource1', 'K6'): 300, ('Resource21', 'K1'): 100, ('Resource21', 'K2'): 100, ('Resource21', 'K3'): 100, ('Resource21', 'K4'): 100, ('Resource21', 'K5'): 300, ('Resource21', 'K6'): 300, ('Resource22', 'K1'): 100, ('Resource22', 'K2'): 100, ('Resource22', 'K3'): 100, ('Resource22', 'K4'): 100, ('Resource22', 'K5'): 300, ('Resource22', 'K6'): 300, ('Resource31', 'K1'): 100, ('Resource31', 'K2'): 150, ('Resource31', 'K3'): 200, ('Resource31', 'K4'): 200, ('Resource31', 'K5'): 200, ('Resource31', 'K6'): 300}</t>
+    <t>prod_rate:</t>
+  </si>
+  <si>
+    <t>{('Resource1', 'K1'): 133, ('Resource1', 'K2'): 254, ('Resource1', 'K3'): 100, ('Resource1', 'K4'): 375, ('Resource1', 'K5'): 300, ('Resource1', 'K6'): 553, ('Resource2', 'K1'): 100, ('Resource2', 'K2'): 100, ('Resource2', 'K3'): 100, ('Resource2', 'K4'): 100, ('Resource2', 'K5'): 300, ('Resource2', 'K6'): 300, ('Resource21', 'K1'): 100, ('Resource21', 'K2'): 100, ('Resource21', 'K3'): 100, ('Resource21', 'K4'): 100, ('Resource21', 'K5'): 300, ('Resource21', 'K6'): 300, ('Resource22', 'K1'): 100, ('Resource22', 'K2'): 100, ('Resource22', 'K3'): 100, ('Resource22', 'K4'): 100, ('Resource22', 'K5'): 300, ('Resource22', 'K6'): 300, ('Resource31', 'K1'): 100, ('Resource31', 'K2'): 150, ('Resource31', 'K3'): 200, ('Resource31', 'K4'): 200, ('Resource31', 'K5'): 200, ('Resource31', 'K6'): 300, ('Resource41', 'K1'): 100, ('Resource41', 'K2'): 150, ('Resource41', 'K3'): 200, ('Resource41', 'K4'): 200, ('Resource41', 'K5'): 200, ('Resource41', 'K6'): 300}</t>
   </si>
   <si>
     <t>cooling_time:</t>
@@ -31,16 +31,10 @@
     <t>{'K1': 1, 'K2': 1, 'K3': 1, 'K4': 1, 'K5': 1, 'K6': 1}</t>
   </si>
   <si>
-    <t>nsi_schedule (НСИ выплавки):</t>
-  </si>
-  <si>
-    <t>{1: ('K1', 300), 2: ('K2', 300), 3: ('K3', 400), 4: ('K6', 1200), 5: ('K4', 200), 6: ('K5', 600)}</t>
-  </si>
-  <si>
-    <t>total_nsi (объемы НСИ):</t>
-  </si>
-  <si>
-    <t>{'K1': 300, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 1200}</t>
+    <t>total_nsi:</t>
+  </si>
+  <si>
+    <t>{'K1': 700, 'K2': 300, 'K3': 400, 'K4': 200, 'K5': 600, 'K6': 1200}</t>
   </si>
   <si>
     <t>МЕТРИКИ:</t>
@@ -64,7 +58,10 @@
     <t>НСИ: выплавка</t>
   </si>
   <si>
-    <t>Код кампании</t>
+    <t>День</t>
+  </si>
+  <si>
+    <t>Код</t>
   </si>
   <si>
     <t>K1</t>
@@ -88,10 +85,7 @@
     <t>Тонны</t>
   </si>
   <si>
-    <t>Выплавка (этап 1)</t>
-  </si>
-  <si>
-    <t>День</t>
+    <t>Этап 1</t>
   </si>
   <si>
     <t>Resource1 (код)</t>
@@ -103,7 +97,16 @@
     <t>Resource1 (т)</t>
   </si>
   <si>
-    <t>4 дн перевалок</t>
+    <t>0 дн перевалок</t>
+  </si>
+  <si>
+    <t>Resource2 (код)</t>
+  </si>
+  <si>
+    <t>Resource2 (т)</t>
+  </si>
+  <si>
+    <t>Этап 2</t>
   </si>
   <si>
     <t>Resource21 (код)</t>
@@ -118,7 +121,7 @@
     <t>Resource22 (т)</t>
   </si>
   <si>
-    <t>0 дн перевалок</t>
+    <t>Этап 3</t>
   </si>
   <si>
     <t>Resource31 (код)</t>
@@ -127,34 +130,37 @@
     <t>Resource31 (т)</t>
   </si>
   <si>
-    <t>3 дн перевалок</t>
-  </si>
-  <si>
-    <t>ОГРАНИЧЕНИЯ:</t>
-  </si>
-  <si>
-    <t>Горизонт планирования: до выполнения всех кампаний.</t>
-  </si>
-  <si>
-    <t>Приоритеты кампаний: нестрогие (можно игнорировать при необходимости).</t>
-  </si>
-  <si>
-    <t>Минимальная длительность кампании: равна длительности партии (рассчитывается как объем партии / производительность).</t>
-  </si>
-  <si>
-    <t>Ресурсы переналадки: не ограничены.</t>
-  </si>
-  <si>
-    <t>Калибровки/ТО: учтены в плановых простоях/переналадках.</t>
-  </si>
-  <si>
-    <t>Точность времени: целочисленные интервалы (минуты/часы).</t>
-  </si>
-  <si>
-    <t>Утилизация НЗП: продукты из НЗП могут использоваться в нескольких параллельных кампаниях.</t>
-  </si>
-  <si>
-    <t>Параллельные агрегаты: кампании выполняются независимо (синхронизация не требуется).</t>
+    <t>Этап 4</t>
+  </si>
+  <si>
+    <t>Resource41 (код)</t>
+  </si>
+  <si>
+    <t>Resource41 (т)</t>
+  </si>
+  <si>
+    <t>Итоговый тоннаж (последний этап):</t>
+  </si>
+  <si>
+    <t>ОГРАНИЧЕНИЯ (из ТЗ):</t>
+  </si>
+  <si>
+    <t>Одна кампания на агрегат в день.</t>
+  </si>
+  <si>
+    <t>Ремонты блокируют работу и перевалку.</t>
+  </si>
+  <si>
+    <t>Смена кампании → перевалка по матрице.</t>
+  </si>
+  <si>
+    <t>Запрет работы в день перевалки.</t>
+  </si>
+  <si>
+    <t>Запрет «нулевых» дней между рабочими без перевалки.</t>
+  </si>
+  <si>
+    <t>Баланс материалов с учётом охлаждения.</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +191,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6C1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFA07A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -198,6 +198,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,12 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,18 +534,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -541,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -549,93 +569,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="P14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
       <c r="B16">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C16">
         <v>300</v>
@@ -652,15 +714,42 @@
       <c r="G16">
         <v>600</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -710,96 +799,96 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>553</v>
       </c>
       <c r="C21">
-        <v>300</v>
+        <v>553</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -807,319 +896,713 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>300</v>
-      </c>
-      <c r="D25">
-        <v>300</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>300</v>
-      </c>
-      <c r="G25">
-        <v>300</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>300</v>
-      </c>
-      <c r="J25">
-        <v>300</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>100</v>
-      </c>
-      <c r="P25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+      <c r="J30">
+        <v>300</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
         <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>12</v>
+      </c>
+      <c r="N37">
+        <v>13</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>300</v>
       </c>
-      <c r="E32">
+      <c r="E39">
         <v>300</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>300</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>200</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>200</v>
       </c>
-      <c r="J32">
+      <c r="M39">
         <v>200</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>14</v>
+      </c>
+      <c r="P43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>300</v>
       </c>
-      <c r="M32">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>300</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>100</v>
-      </c>
-      <c r="P32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>300</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>200</v>
+      </c>
+      <c r="N45">
+        <v>200</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>400</v>
+      </c>
+      <c r="G48">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
